--- a/biology/Zoologie/Fuligule_morillon/Fuligule_morillon.xlsx
+++ b/biology/Zoologie/Fuligule_morillon/Fuligule_morillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aythya fuligula
 Le Fuligule morillon ou morillon huppé (Aythya fuligula) est une espèce de canards plongeurs appartenant à la famille des Anatidés.
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un canard de 40 à 47 cm de long avec une envergure de 67 à 73 cm, pesant entre 550 et 900 g, donc un peu plus petit qu'un fuligule milouin par exemple.
 Le mâle a un plumage noir brillant avec des reflets vert-violet et des flancs blancs, ainsi qu'une fine huppe noire de 5 cm, retombante. 
@@ -547,16 +561,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bon plongeur, il peut descendre jusqu'à plusieurs mètres de profondeur.
-Régime alimentaire
-Il se nourrit principalement d'insectes, de mollusques, de têtards, de petites grenouilles, de petits poissons, de crustacés et de végétation aquatique, qu'il prélève en plongeant.
-Comportement social
-C'est un oiseau grégaire, qui forme de larges bandes en hiver. Il vit avec d'autres canards plongeurs, notamment les fuligules milouins ainsi qu'avec les foulques. 
-Chant
-Reproduction
-La femelle pond une couvée par an de 8 à 11 œufs marron clair entre mars et mai. Le nid est au sol, près de l'eau, bien caché. Il est fait d'herbes, de jonc et de duvet de la femelle.
 </t>
         </is>
       </c>
@@ -582,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de répartition
-Il se rencontre dans toute l'Europe et une partie de l'ouest de l'Asie, comme dans le Caucase. 
-Il peut occasionnellement être trouvé en hiver le long des côtes du Canada et des États-Unis. C'est principalement un migrateur, il passe l'hiver dans le sud et passe l'été au nord et au centre de l'Europe (îles britanniques, Islande, Scandinavie). On considère que le fuligule morillon a étendu son aire de répartition traditionnelle, notamment grâce à la prolifération des mollusques d'eau douce et à l'extraction de gravier.
-Habitat
-Le fuligule morillon fréquente les lacs et étangs ainsi que les rivières larges.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement d'insectes, de mollusques, de têtards, de petites grenouilles, de petits poissons, de crustacés et de végétation aquatique, qu'il prélève en plongeant.
 </t>
         </is>
       </c>
@@ -617,10 +628,161 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oiseau grégaire, qui forme de larges bandes en hiver. Il vit avec d'autres canards plongeurs, notamment les fuligules milouins ainsi qu'avec les foulques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond une couvée par an de 8 à 11 œufs marron clair entre mars et mai. Le nid est au sol, près de l'eau, bien caché. Il est fait d'herbes, de jonc et de duvet de la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se rencontre dans toute l'Europe et une partie de l'ouest de l'Asie, comme dans le Caucase. 
+Il peut occasionnellement être trouvé en hiver le long des côtes du Canada et des États-Unis. C'est principalement un migrateur, il passe l'hiver dans le sud et passe l'été au nord et au centre de l'Europe (îles britanniques, Islande, Scandinavie). On considère que le fuligule morillon a étendu son aire de répartition traditionnelle, notamment grâce à la prolifération des mollusques d'eau douce et à l'extraction de gravier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fuligule morillon fréquente les lacs et étangs ainsi que les rivières larges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_morillon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Chasse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le fuligule morillon est une espèce chassable.
 </t>
